--- a/_Dump data/EXCEL/test-import.xlsx
+++ b/_Dump data/EXCEL/test-import.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PPDO\Github\moni-track\_Dump data\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F3CA45-D440-4DDF-9480-5B7086269F98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81400F91-51A8-4179-8305-4D2B9C9B00E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="83">
   <si>
     <t>PROJECT ID</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>sda</t>
+  </si>
+  <si>
+    <t>20% Development Fund 2025</t>
   </si>
 </sst>
 </file>
@@ -476,6 +479,18 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -486,18 +501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1804,7 +1807,7 @@
   <dimension ref="A1:Y15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1837,91 +1840,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="102.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="25" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
-      <c r="S2" s="21"/>
-      <c r="T2" s="21"/>
-      <c r="U2" s="21"/>
-      <c r="V2" s="21"/>
-      <c r="W2" s="21"/>
-      <c r="X2" s="21"/>
-      <c r="Y2" s="21"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="25"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="25"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="25"/>
+      <c r="U2" s="25"/>
+      <c r="V2" s="25"/>
+      <c r="W2" s="25"/>
+      <c r="X2" s="25"/>
+      <c r="Y2" s="25"/>
     </row>
     <row r="3" spans="1:25" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="26" t="s">
         <v>72</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
-      <c r="U3" s="22"/>
-      <c r="V3" s="22"/>
-      <c r="W3" s="22"/>
-      <c r="X3" s="22"/>
-      <c r="Y3" s="22"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
     </row>
     <row r="4" spans="1:25" s="2" customFormat="1" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A4" s="12" t="s">
@@ -2581,18 +2584,18 @@
       <c r="Y14" s="3"/>
     </row>
     <row r="15" spans="1:25" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="19">
         <v>1569</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C15" s="23"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="3" t="s">
         <v>50</v>
       </c>
@@ -2603,20 +2606,22 @@
         <v>2014</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="23"/>
-      <c r="N15" s="25"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="25"/>
-      <c r="Q15" s="25"/>
-      <c r="R15" s="24"/>
+        <v>82</v>
+      </c>
+      <c r="K15" s="4">
+        <v>2000000</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="21"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="20"/>
       <c r="S15" s="7">
         <v>1</v>
       </c>
-      <c r="T15" s="26"/>
+      <c r="T15" s="22"/>
       <c r="U15" s="3" t="s">
         <v>26</v>
       </c>
@@ -2629,7 +2634,7 @@
       <c r="X15" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Y15" s="23"/>
+      <c r="Y15" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
